--- a/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12641012-08F5-49CB-AB36-C044EA730F1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E232E9-386A-4E40-8C8C-A52EE7E9176F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16830" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3646,9 +3646,6 @@
     <t>CCC Optional Tags 0xE3 and 0xB4 may be present or absent; if present are after tags listed in and are in that order</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:5</t>
-  </si>
-  <si>
     <t>9.6.1.1</t>
   </si>
   <si>
@@ -3815,6 +3812,9 @@
   </si>
   <si>
     <t>CCC Tag 0xFE present and after any tags from 73-4.3 and 73-4.4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -4666,7 +4666,7 @@
         <v>1197</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -4852,7 +4852,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>78</v>
@@ -5150,7 +5150,7 @@
         <v>1013</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>1014</v>
@@ -5291,7 +5291,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>719</v>
@@ -5918,7 +5918,7 @@
         <v>154</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D74" s="41" t="s">
         <v>156</v>
@@ -5936,7 +5936,7 @@
         <v>157</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1039</v>
@@ -5954,7 +5954,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1040</v>
@@ -5972,7 +5972,7 @@
         <v>163</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D77" s="38" t="s">
         <v>159</v>
@@ -5990,7 +5990,7 @@
         <v>1041</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D78" s="41" t="s">
         <v>162</v>
@@ -6008,7 +6008,7 @@
         <v>1042</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D79" s="38" t="s">
         <v>165</v>
@@ -7339,7 +7339,7 @@
         <v>54</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C157" s="43" t="s">
         <v>16</v>
@@ -7367,7 +7367,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C159" s="33" t="s">
         <v>18</v>
@@ -7697,7 +7697,7 @@
         <v>54</v>
       </c>
       <c r="B178" s="38" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C178" s="45" t="s">
         <v>21</v>
@@ -8009,7 +8009,7 @@
         <v>54</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C196" s="33" t="s">
         <v>24</v>
@@ -8321,7 +8321,7 @@
         <v>54</v>
       </c>
       <c r="B214" s="38" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C214" s="45" t="s">
         <v>305</v>
@@ -8857,7 +8857,7 @@
         <v>54</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C245" s="43" t="s">
         <v>27</v>
@@ -8885,10 +8885,10 @@
         <v>54</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C247" s="46" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D247" s="38" t="s">
         <v>815</v>
@@ -8903,10 +8903,10 @@
         <v>54</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C248" s="46" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D248" s="38" t="s">
         <v>818</v>
@@ -8921,10 +8921,10 @@
         <v>54</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C249" s="46" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D249" s="38" t="s">
         <v>821</v>
@@ -8939,10 +8939,10 @@
         <v>54</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C250" s="46" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D250" s="38" t="s">
         <v>824</v>
@@ -8971,10 +8971,10 @@
         <v>54</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C252" s="38" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D252" s="38" t="s">
         <v>1069</v>
@@ -8989,10 +8989,10 @@
         <v>54</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C253" s="38" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D253" s="38" t="s">
         <v>1069</v>
@@ -9007,10 +9007,10 @@
         <v>54</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C254" s="38" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D254" s="38" t="s">
         <v>1069</v>
@@ -9025,10 +9025,10 @@
         <v>54</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C255" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D255" s="38" t="s">
         <v>1069</v>
@@ -9043,7 +9043,7 @@
         <v>54</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C256" s="33" t="s">
         <v>30</v>
@@ -9365,7 +9365,7 @@
         <v>54</v>
       </c>
       <c r="B275" s="38" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C275" s="33" t="s">
         <v>401</v>
@@ -9432,7 +9432,7 @@
         <v>407</v>
       </c>
       <c r="C279" s="46" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D279" s="38" t="s">
         <v>375</v>
@@ -9554,7 +9554,7 @@
         <v>417</v>
       </c>
       <c r="C286" s="41" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D286" s="41" t="s">
         <v>418</v>
@@ -9870,7 +9870,7 @@
         <v>443</v>
       </c>
       <c r="C304" s="41" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D304" s="41" t="s">
         <v>418</v>
@@ -10074,10 +10074,10 @@
         <v>456</v>
       </c>
       <c r="C316" s="38" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D316" s="38" t="s">
         <v>1233</v>
-      </c>
-      <c r="D316" s="38" t="s">
-        <v>1234</v>
       </c>
       <c r="E316" s="44"/>
       <c r="F316" s="38" t="s">
@@ -10164,7 +10164,7 @@
         <v>469</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D321" s="41" t="s">
         <v>418</v>
@@ -10372,7 +10372,7 @@
         <v>480</v>
       </c>
       <c r="C333" s="41" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D333" s="41" t="s">
         <v>418</v>
@@ -11552,7 +11552,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="39" t="s">
         <v>54</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="39" t="s">
         <v>54</v>
       </c>
@@ -12900,9 +12900,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13027,7 +13025,7 @@
         <v>701</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
@@ -13239,7 +13237,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>1204</v>
+        <v>1260</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>686</v>
@@ -14752,7 +14750,7 @@
         <v>1084</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26" t="s">
@@ -14771,7 +14769,7 @@
         <v>1085</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26" t="s">
@@ -14790,7 +14788,7 @@
         <v>1086</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26" t="s">
@@ -14809,7 +14807,7 @@
         <v>1087</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26" t="s">
@@ -14828,7 +14826,7 @@
         <v>1088</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26" t="s">
@@ -14847,7 +14845,7 @@
         <v>1089</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26" t="s">
@@ -14866,7 +14864,7 @@
         <v>1090</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26" t="s">
@@ -14885,7 +14883,7 @@
         <v>1091</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26" t="s">
@@ -14904,7 +14902,7 @@
         <v>1092</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26" t="s">
@@ -14923,7 +14921,7 @@
         <v>1093</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26" t="s">
@@ -14942,7 +14940,7 @@
         <v>1094</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="26" t="s">
@@ -14961,7 +14959,7 @@
         <v>1095</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="26" t="s">
@@ -16965,7 +16963,7 @@
         <v>828</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -17487,7 +17485,7 @@
         <v>1137</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E50" s="62"/>
       <c r="F50" s="62"/>
@@ -17970,13 +17968,13 @@
     </row>
     <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>1098</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>875</v>
@@ -17998,7 +17996,7 @@
         <v>893</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
@@ -18106,7 +18104,7 @@
         <v>686</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -18215,7 +18213,7 @@
         <v>910</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -18861,7 +18859,7 @@
         <v>1157</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>686</v>

--- a/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E232E9-386A-4E40-8C8C-A52EE7E9176F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607CE874-56B9-4AA8-8F46-0B35F64098A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -4622,23 +4622,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A354" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C367" sqref="C367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="69.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="50" customWidth="1"/>
-    <col min="6" max="6" width="84.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" style="50" customWidth="1"/>
+    <col min="6" max="6" width="84.59765625" style="2" customWidth="1"/>
     <col min="7" max="1025" width="8.5" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>50</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>54</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>54</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>54</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>54</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>54</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>54</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>54</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>54</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>54</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>54</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>54</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>54</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>54</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>54</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>54</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>54</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>54</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>54</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>54</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>54</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>54</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
         <v>54</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>54</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>54</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>54</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>54</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>54</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>54</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
         <v>54</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>54</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42" t="s">
         <v>54</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
         <v>54</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
         <v>54</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>54</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
         <v>54</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>54</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>54</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
         <v>54</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>54</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
         <v>119</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
         <v>54</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
         <v>54</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>54</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
         <v>54</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
         <v>54</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>54</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
         <v>54</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>54</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
         <v>54</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
         <v>54</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
         <v>54</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>119</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
         <v>54</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
         <v>54</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
         <v>54</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
         <v>54</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
         <v>54</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>54</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
         <v>54</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
         <v>54</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>54</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
         <v>54</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
         <v>54</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
         <v>54</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
         <v>54</v>
       </c>
@@ -5820,7 +5820,7 @@
       <c r="E68" s="33"/>
       <c r="F68" s="33"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
         <v>54</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
         <v>54</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
         <v>54</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A72" s="39" t="s">
         <v>54</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
         <v>54</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
         <v>54</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="42" t="s">
         <v>54</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A76" s="42" t="s">
         <v>54</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
         <v>54</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="39" t="s">
         <v>54</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
         <v>54</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
         <v>119</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="39" t="s">
         <v>54</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="39" t="s">
         <v>54</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="E82" s="33"/>
       <c r="F82" s="33"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
         <v>54</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="39" t="s">
         <v>54</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="39" t="s">
         <v>54</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
         <v>54</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="39" t="s">
         <v>54</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="39" t="s">
         <v>54</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="39" t="s">
         <v>54</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="39" t="s">
         <v>119</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="39" t="s">
         <v>54</v>
       </c>
@@ -6222,7 +6222,7 @@
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
         <v>54</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="E92" s="33"/>
       <c r="F92" s="33"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
         <v>54</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="39" t="s">
         <v>54</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="39" t="s">
         <v>54</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A96" s="39" t="s">
         <v>54</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A97" s="39" t="s">
         <v>119</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="39" t="s">
         <v>54</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="39" t="s">
         <v>54</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="39" t="s">
         <v>54</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="39" t="s">
         <v>54</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="39" t="s">
         <v>119</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="39" t="s">
         <v>54</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="E103" s="33"/>
       <c r="F103" s="33"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="39" t="s">
         <v>54</v>
       </c>
@@ -6444,7 +6444,7 @@
       <c r="E104" s="33"/>
       <c r="F104" s="33"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="39" t="s">
         <v>54</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="39" t="s">
         <v>54</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
         <v>54</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A108" s="39" t="s">
         <v>54</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A109" s="39" t="s">
         <v>54</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="39" t="s">
         <v>54</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="39" t="s">
         <v>54</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="39" t="s">
         <v>54</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="39" t="s">
         <v>54</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
         <v>119</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="39" t="s">
         <v>54</v>
       </c>
@@ -6638,7 +6638,7 @@
       <c r="E115" s="33"/>
       <c r="F115" s="33"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="39" t="s">
         <v>54</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="E116" s="33"/>
       <c r="F116" s="33"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="39" t="s">
         <v>54</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="39" t="s">
         <v>54</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="39" t="s">
         <v>54</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A120" s="39" t="s">
         <v>54</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A121" s="39" t="s">
         <v>54</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="39" t="s">
         <v>54</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="39" t="s">
         <v>54</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="39" t="s">
         <v>54</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="39" t="s">
         <v>54</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="39" t="s">
         <v>119</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="39" t="s">
         <v>54</v>
       </c>
@@ -6846,7 +6846,7 @@
       <c r="E127" s="33"/>
       <c r="F127" s="33"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="39" t="s">
         <v>54</v>
       </c>
@@ -6860,7 +6860,7 @@
       <c r="E128" s="33"/>
       <c r="F128" s="33"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="39" t="s">
         <v>54</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="39" t="s">
         <v>54</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="39" t="s">
         <v>54</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A132" s="39" t="s">
         <v>54</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="39" t="s">
         <v>54</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="39" t="s">
         <v>54</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="42" t="s">
         <v>54</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="39" t="s">
         <v>54</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A137" s="39" t="s">
         <v>54</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="39" t="s">
         <v>54</v>
       </c>
@@ -7036,7 +7036,7 @@
       <c r="E138" s="33"/>
       <c r="F138" s="33"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="39" t="s">
         <v>54</v>
       </c>
@@ -7050,7 +7050,7 @@
       <c r="E139" s="33"/>
       <c r="F139" s="33"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="39" t="s">
         <v>54</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="39" t="s">
         <v>54</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="39" t="s">
         <v>54</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A143" s="39" t="s">
         <v>54</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="39" t="s">
         <v>54</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="39" t="s">
         <v>54</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="42" t="s">
         <v>54</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="39" t="s">
         <v>54</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A148" s="39" t="s">
         <v>54</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="39" t="s">
         <v>119</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="39" t="s">
         <v>54</v>
       </c>
@@ -7244,7 +7244,7 @@
       <c r="E150" s="43"/>
       <c r="F150" s="33"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="39" t="s">
         <v>54</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="E151" s="43"/>
       <c r="F151" s="33"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="39" t="s">
         <v>54</v>
       </c>
@@ -7274,7 +7274,7 @@
       <c r="E152" s="38"/>
       <c r="F152" s="38"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="39" t="s">
         <v>54</v>
       </c>
@@ -7290,7 +7290,7 @@
       <c r="E153" s="38"/>
       <c r="F153" s="38"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="39" t="s">
         <v>54</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="E154" s="38"/>
       <c r="F154" s="38"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="39" t="s">
         <v>54</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="E155" s="43"/>
       <c r="F155" s="43"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="39" t="s">
         <v>54</v>
       </c>
@@ -7334,7 +7334,7 @@
       <c r="E156" s="43"/>
       <c r="F156" s="43"/>
     </row>
-    <row r="157" spans="1:6" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="39" t="s">
         <v>54</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="E157" s="43"/>
       <c r="F157" s="43"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="39" t="s">
         <v>54</v>
       </c>
@@ -7362,7 +7362,7 @@
       <c r="E158" s="53"/>
       <c r="F158" s="43"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="32" t="s">
         <v>54</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="E159" s="43"/>
       <c r="F159" s="43"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="32" t="s">
         <v>54</v>
       </c>
@@ -7390,7 +7390,7 @@
       <c r="E160" s="43"/>
       <c r="F160" s="43"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
         <v>54</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
         <v>54</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
         <v>54</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>54</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A165" s="39" t="s">
         <v>54</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="39" t="s">
         <v>54</v>
       </c>
@@ -7494,7 +7494,7 @@
       <c r="E166" s="43"/>
       <c r="F166" s="43"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
         <v>54</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="39" t="s">
         <v>54</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A169" s="39" t="s">
         <v>54</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="39" t="s">
         <v>54</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A171" s="39" t="s">
         <v>54</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="39" t="s">
         <v>54</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="39" t="s">
         <v>54</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A174" s="39" t="s">
         <v>54</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="39" t="s">
         <v>54</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A176" s="39" t="s">
         <v>54</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="39" t="s">
         <v>54</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="39" t="s">
         <v>54</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="E178" s="43"/>
       <c r="F178" s="43"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="39" t="s">
         <v>54</v>
       </c>
@@ -7720,7 +7720,7 @@
       <c r="E179" s="43"/>
       <c r="F179" s="43"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="39" t="s">
         <v>54</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="39" t="s">
         <v>54</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="39" t="s">
         <v>54</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="39" t="s">
         <v>54</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="39" t="s">
         <v>54</v>
       </c>
@@ -7806,7 +7806,7 @@
       <c r="E184" s="43"/>
       <c r="F184" s="43"/>
     </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A185" s="39" t="s">
         <v>54</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="39" t="s">
         <v>54</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A187" s="39" t="s">
         <v>54</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="39" t="s">
         <v>54</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A189" s="39" t="s">
         <v>54</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="39" t="s">
         <v>54</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="39" t="s">
         <v>54</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A192" s="39" t="s">
         <v>54</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="39" t="s">
         <v>54</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A194" s="39" t="s">
         <v>54</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="39" t="s">
         <v>54</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="39" t="s">
         <v>54</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="E196" s="43"/>
       <c r="F196" s="43"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="39" t="s">
         <v>54</v>
       </c>
@@ -8032,7 +8032,7 @@
       <c r="E197" s="43"/>
       <c r="F197" s="43"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="39" t="s">
         <v>54</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="39" t="s">
         <v>54</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="39" t="s">
         <v>54</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="39" t="s">
         <v>54</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="39" t="s">
         <v>54</v>
       </c>
@@ -8118,7 +8118,7 @@
       <c r="E202" s="43"/>
       <c r="F202" s="43"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="39" t="s">
         <v>54</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="39" t="s">
         <v>54</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="39" t="s">
         <v>54</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="39" t="s">
         <v>54</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A207" s="39" t="s">
         <v>54</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="39" t="s">
         <v>54</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="39" t="s">
         <v>54</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A210" s="39" t="s">
         <v>54</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="39" t="s">
         <v>54</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A212" s="39" t="s">
         <v>54</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="39" t="s">
         <v>54</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="39" t="s">
         <v>54</v>
       </c>
@@ -8330,7 +8330,7 @@
       <c r="E214" s="43"/>
       <c r="F214" s="43"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="39" t="s">
         <v>54</v>
       </c>
@@ -8344,7 +8344,7 @@
       <c r="E215" s="43"/>
       <c r="F215" s="43"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="39" t="s">
         <v>54</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="39" t="s">
         <v>54</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="39" t="s">
         <v>54</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A219" s="39" t="s">
         <v>54</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A220" s="39" t="s">
         <v>54</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="39" t="s">
         <v>54</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="39" t="s">
         <v>54</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A223" s="39" t="s">
         <v>54</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A224" s="39" t="s">
         <v>54</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="39" t="s">
         <v>54</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="39" t="s">
         <v>54</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="39" t="s">
         <v>54</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="39" t="s">
         <v>54</v>
       </c>
@@ -8574,7 +8574,7 @@
       <c r="E228" s="43"/>
       <c r="F228" s="43"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="39" t="s">
         <v>54</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="39" t="s">
         <v>54</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="39" t="s">
         <v>54</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="39" t="s">
         <v>54</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="39" t="s">
         <v>54</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="39" t="s">
         <v>54</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="39" t="s">
         <v>54</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A236" s="39" t="s">
         <v>54</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="39" t="s">
         <v>54</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="39" t="s">
         <v>54</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="39" t="s">
         <v>54</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="39" t="s">
         <v>54</v>
       </c>
@@ -8786,7 +8786,7 @@
       <c r="E240" s="43"/>
       <c r="F240" s="43"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="39" t="s">
         <v>54</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="39" t="s">
         <v>54</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="39" t="s">
         <v>54</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="E243" s="43"/>
       <c r="F243" s="43"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="39" t="s">
         <v>54</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="E244" s="38"/>
       <c r="F244" s="38"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="39" t="s">
         <v>54</v>
       </c>
@@ -8866,7 +8866,7 @@
       <c r="E245" s="43"/>
       <c r="F245" s="43"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="39" t="s">
         <v>54</v>
       </c>
@@ -8880,7 +8880,7 @@
       <c r="E246" s="43"/>
       <c r="F246" s="43"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="39" t="s">
         <v>54</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="39" t="s">
         <v>54</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="39" t="s">
         <v>54</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="39" t="s">
         <v>54</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="39" t="s">
         <v>54</v>
       </c>
@@ -8966,7 +8966,7 @@
       <c r="E251" s="52"/>
       <c r="F251" s="52"/>
     </row>
-    <row r="252" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="39" t="s">
         <v>54</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="39" t="s">
         <v>54</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="39" t="s">
         <v>54</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="39" t="s">
         <v>54</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="39" t="s">
         <v>54</v>
       </c>
@@ -9052,7 +9052,7 @@
       <c r="E256" s="43"/>
       <c r="F256" s="43"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="39" t="s">
         <v>54</v>
       </c>
@@ -9068,7 +9068,7 @@
       <c r="E257" s="38"/>
       <c r="F257" s="38"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="39" t="s">
         <v>54</v>
       </c>
@@ -9084,7 +9084,7 @@
       <c r="E258" s="38"/>
       <c r="F258" s="38"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="39" t="s">
         <v>54</v>
       </c>
@@ -9098,7 +9098,7 @@
       <c r="E259" s="43"/>
       <c r="F259" s="43"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="39" t="s">
         <v>54</v>
       </c>
@@ -9112,7 +9112,7 @@
       <c r="E260" s="43"/>
       <c r="F260" s="43"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="39" t="s">
         <v>54</v>
       </c>
@@ -9126,7 +9126,7 @@
       <c r="E261" s="43"/>
       <c r="F261" s="43"/>
     </row>
-    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A262" s="39" t="s">
         <v>54</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="39" t="s">
         <v>54</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A264" s="39" t="s">
         <v>54</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A265" s="39" t="s">
         <v>54</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="39" t="s">
         <v>54</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="39" t="s">
         <v>54</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A268" s="39" t="s">
         <v>54</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A269" s="39" t="s">
         <v>54</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A270" s="39" t="s">
         <v>54</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A271" s="39" t="s">
         <v>54</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A272" s="39" t="s">
         <v>54</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A273" s="39" t="s">
         <v>54</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="39" t="s">
         <v>54</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="39" t="s">
         <v>54</v>
       </c>
@@ -9374,7 +9374,7 @@
       <c r="E275" s="43"/>
       <c r="F275" s="43"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="39" t="s">
         <v>54</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="E276" s="43"/>
       <c r="F276" s="43"/>
     </row>
-    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A277" s="39" t="s">
         <v>54</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="39" t="s">
         <v>54</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A279" s="39" t="s">
         <v>54</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A280" s="39" t="s">
         <v>54</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="39" t="s">
         <v>54</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="39" t="s">
         <v>54</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="39" t="s">
         <v>54</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A284" s="39" t="s">
         <v>54</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="39" t="s">
         <v>54</v>
       </c>
@@ -9546,7 +9546,7 @@
       <c r="E285" s="43"/>
       <c r="F285" s="43"/>
     </row>
-    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A286" s="39" t="s">
         <v>54</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A287" s="39" t="s">
         <v>54</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A288" s="39" t="s">
         <v>54</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A289" s="39" t="s">
         <v>54</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A290" s="39" t="s">
         <v>54</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A291" s="60" t="s">
         <v>54</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A292" s="39" t="s">
         <v>54</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A293" s="39" t="s">
         <v>54</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="39" t="s">
         <v>54</v>
       </c>
@@ -9704,7 +9704,7 @@
       <c r="E294" s="43"/>
       <c r="F294" s="43"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="39" t="s">
         <v>54</v>
       </c>
@@ -9718,7 +9718,7 @@
       <c r="E295" s="43"/>
       <c r="F295" s="43"/>
     </row>
-    <row r="296" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A296" s="39" t="s">
         <v>54</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="39" t="s">
         <v>54</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A298" s="39" t="s">
         <v>54</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A299" s="39" t="s">
         <v>54</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="39" t="s">
         <v>54</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="39" t="s">
         <v>54</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="39" t="s">
         <v>54</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A303" s="39" t="s">
         <v>54</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A304" s="39" t="s">
         <v>54</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A305" s="39" t="s">
         <v>54</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A306" s="39" t="s">
         <v>54</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A307" s="39" t="s">
         <v>54</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A308" s="39" t="s">
         <v>54</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A309" s="60" t="s">
         <v>54</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A310" s="39" t="s">
         <v>54</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A311" s="39" t="s">
         <v>54</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="39" t="s">
         <v>54</v>
       </c>
@@ -10020,7 +10020,7 @@
       <c r="E312" s="43"/>
       <c r="F312" s="43"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="39" t="s">
         <v>54</v>
       </c>
@@ -10034,7 +10034,7 @@
       <c r="E313" s="43"/>
       <c r="F313" s="43"/>
     </row>
-    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A314" s="39" t="s">
         <v>54</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="39" t="s">
         <v>54</v>
       </c>
@@ -10066,7 +10066,7 @@
       <c r="E315" s="43"/>
       <c r="F315" s="43"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="39" t="s">
         <v>54</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="39" t="s">
         <v>54</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="39" t="s">
         <v>54</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A319" s="39" t="s">
         <v>54</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="39" t="s">
         <v>54</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A321" s="39" t="s">
         <v>54</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A322" s="39" t="s">
         <v>54</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="39" t="s">
         <v>54</v>
       </c>
@@ -10206,7 +10206,7 @@
       <c r="E323" s="43"/>
       <c r="F323" s="43"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="39" t="s">
         <v>54</v>
       </c>
@@ -10220,7 +10220,7 @@
       <c r="E324" s="43"/>
       <c r="F324" s="43"/>
     </row>
-    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A325" s="39" t="s">
         <v>54</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="39" t="s">
         <v>54</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A327" s="39" t="s">
         <v>54</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A328" s="39" t="s">
         <v>54</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="39" t="s">
         <v>54</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="39" t="s">
         <v>54</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="39" t="s">
         <v>54</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A332" s="39" t="s">
         <v>54</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A333" s="39" t="s">
         <v>54</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A334" s="39" t="s">
         <v>54</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A335" s="39" t="s">
         <v>54</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A336" s="39" t="s">
         <v>54</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A337" s="39" t="s">
         <v>54</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A338" s="60" t="s">
         <v>54</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A339" s="39" t="s">
         <v>54</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A340" s="39" t="s">
         <v>54</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="39" t="s">
         <v>54</v>
       </c>
@@ -10522,7 +10522,7 @@
       <c r="E341" s="43"/>
       <c r="F341" s="43"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="39" t="s">
         <v>54</v>
       </c>
@@ -10536,7 +10536,7 @@
       <c r="E342" s="43"/>
       <c r="F342" s="43"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="39" t="s">
         <v>54</v>
       </c>
@@ -10550,7 +10550,7 @@
       <c r="E343" s="43"/>
       <c r="F343" s="43"/>
     </row>
-    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A344" s="39" t="s">
         <v>54</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A345" s="39" t="s">
         <v>54</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A346" s="39" t="s">
         <v>54</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="39" t="s">
         <v>54</v>
       </c>
@@ -10618,7 +10618,7 @@
       <c r="E347" s="43"/>
       <c r="F347" s="43"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="39" t="s">
         <v>54</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="39" t="s">
         <v>54</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="39" t="s">
         <v>54</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A351" s="39" t="s">
         <v>54</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="39" t="s">
         <v>54</v>
       </c>
@@ -10704,7 +10704,7 @@
       <c r="E352" s="43"/>
       <c r="F352" s="43"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="39" t="s">
         <v>54</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="39" t="s">
         <v>54</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="39" t="s">
         <v>54</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A356" s="39" t="s">
         <v>54</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>517</v>
       </c>
       <c r="C356" s="46" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="D356" s="38" t="s">
         <v>519</v>
@@ -10776,7 +10776,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="39" t="s">
         <v>54</v>
       </c>
@@ -10790,7 +10790,7 @@
       <c r="E357" s="43"/>
       <c r="F357" s="43"/>
     </row>
-    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A358" s="39" t="s">
         <v>54</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A359" s="39" t="s">
         <v>54</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A360" s="39" t="s">
         <v>54</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="39" t="s">
         <v>54</v>
       </c>
@@ -10858,7 +10858,7 @@
       <c r="E361" s="43"/>
       <c r="F361" s="43"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="39" t="s">
         <v>54</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="39" t="s">
         <v>54</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="39" t="s">
         <v>54</v>
       </c>
@@ -10908,7 +10908,7 @@
       <c r="E364" s="43"/>
       <c r="F364" s="43"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="39" t="s">
         <v>54</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="39" t="s">
         <v>54</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A367" s="39" t="s">
         <v>54</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="39" t="s">
         <v>54</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="39" t="s">
         <v>54</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="39" t="s">
         <v>54</v>
       </c>
@@ -11012,7 +11012,7 @@
       <c r="E370" s="43"/>
       <c r="F370" s="43"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="39" t="s">
         <v>54</v>
       </c>
@@ -11026,7 +11026,7 @@
       <c r="E371" s="43"/>
       <c r="F371" s="43"/>
     </row>
-    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A372" s="39" t="s">
         <v>54</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A373" s="39" t="s">
         <v>54</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="39" t="s">
         <v>54</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="39" t="s">
         <v>54</v>
       </c>
@@ -11094,7 +11094,7 @@
       <c r="E375" s="43"/>
       <c r="F375" s="43"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="39" t="s">
         <v>54</v>
       </c>
@@ -11108,7 +11108,7 @@
       <c r="E376" s="43"/>
       <c r="F376" s="43"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="39" t="s">
         <v>54</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="39" t="s">
         <v>54</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A379" s="39" t="s">
         <v>54</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A380" s="39" t="s">
         <v>54</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A381" s="39" t="s">
         <v>54</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A382" s="39" t="s">
         <v>54</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="39" t="s">
         <v>54</v>
       </c>
@@ -11230,7 +11230,7 @@
       <c r="E383" s="43"/>
       <c r="F383" s="43"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="39" t="s">
         <v>54</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="39" t="s">
         <v>54</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="39" t="s">
         <v>54</v>
       </c>
@@ -11280,7 +11280,7 @@
       <c r="E386" s="43"/>
       <c r="F386" s="43"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="39" t="s">
         <v>54</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="39" t="s">
         <v>54</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A389" s="39" t="s">
         <v>54</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="39" t="s">
         <v>54</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="39" t="s">
         <v>54</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="39" t="s">
         <v>54</v>
       </c>
@@ -11384,7 +11384,7 @@
       <c r="E392" s="43"/>
       <c r="F392" s="43"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="39" t="s">
         <v>54</v>
       </c>
@@ -11398,7 +11398,7 @@
       <c r="E393" s="43"/>
       <c r="F393" s="43"/>
     </row>
-    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A394" s="39" t="s">
         <v>54</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A395" s="39" t="s">
         <v>54</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="39" t="s">
         <v>54</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="39" t="s">
         <v>54</v>
       </c>
@@ -11466,7 +11466,7 @@
       <c r="E397" s="43"/>
       <c r="F397" s="43"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="39" t="s">
         <v>54</v>
       </c>
@@ -11480,7 +11480,7 @@
       <c r="E398" s="43"/>
       <c r="F398" s="43"/>
     </row>
-    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A399" s="39" t="s">
         <v>54</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A400" s="39" t="s">
         <v>54</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="39" t="s">
         <v>54</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A402" s="39" t="s">
         <v>54</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A403" s="39" t="s">
         <v>54</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A404" s="39" t="s">
         <v>54</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="39" t="s">
         <v>54</v>
       </c>
@@ -11602,7 +11602,7 @@
       <c r="E405" s="43"/>
       <c r="F405" s="43"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="39" t="s">
         <v>54</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="39" t="s">
         <v>54</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="39" t="s">
         <v>54</v>
       </c>
@@ -11652,7 +11652,7 @@
       <c r="E408" s="43"/>
       <c r="F408" s="43"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="39" t="s">
         <v>54</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="39" t="s">
         <v>54</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A411" s="39" t="s">
         <v>54</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="39" t="s">
         <v>54</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="39" t="s">
         <v>54</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="39" t="s">
         <v>54</v>
       </c>
@@ -11756,7 +11756,7 @@
       <c r="E414" s="43"/>
       <c r="F414" s="43"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="39" t="s">
         <v>54</v>
       </c>
@@ -11770,7 +11770,7 @@
       <c r="E415" s="43"/>
       <c r="F415" s="43"/>
     </row>
-    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A416" s="39" t="s">
         <v>54</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A417" s="39" t="s">
         <v>54</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="39" t="s">
         <v>54</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="39" t="s">
         <v>54</v>
       </c>
@@ -11838,7 +11838,7 @@
       <c r="E419" s="43"/>
       <c r="F419" s="43"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="39" t="s">
         <v>54</v>
       </c>
@@ -11852,7 +11852,7 @@
       <c r="E420" s="43"/>
       <c r="F420" s="43"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="39" t="s">
         <v>54</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="39" t="s">
         <v>54</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="39" t="s">
         <v>54</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A424" s="39" t="s">
         <v>54</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="39" t="s">
         <v>54</v>
       </c>
@@ -11938,7 +11938,7 @@
       <c r="E425" s="43"/>
       <c r="F425" s="43"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="39" t="s">
         <v>54</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="39" t="s">
         <v>54</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="39" t="s">
         <v>54</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="39" t="s">
         <v>54</v>
       </c>
@@ -12006,7 +12006,7 @@
       <c r="E429" s="43"/>
       <c r="F429" s="43"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="39" t="s">
         <v>54</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="39" t="s">
         <v>54</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A432" s="39" t="s">
         <v>54</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="39" t="s">
         <v>54</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A434" s="39" t="s">
         <v>54</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="39" t="s">
         <v>54</v>
       </c>
@@ -12110,7 +12110,7 @@
       <c r="E435" s="43"/>
       <c r="F435" s="43"/>
     </row>
-    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A436" s="39" t="s">
         <v>54</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="39" t="s">
         <v>54</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A438" s="39" t="s">
         <v>54</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="39" t="s">
         <v>54</v>
       </c>
@@ -12178,7 +12178,7 @@
       <c r="E439" s="43"/>
       <c r="F439" s="43"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="39" t="s">
         <v>54</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="39" t="s">
         <v>54</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="39" t="s">
         <v>54</v>
       </c>
@@ -12228,7 +12228,7 @@
       <c r="E442" s="43"/>
       <c r="F442" s="43"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="39" t="s">
         <v>54</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="39" t="s">
         <v>54</v>
       </c>
@@ -12260,7 +12260,7 @@
       <c r="E444" s="43"/>
       <c r="F444" s="43"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="39" t="s">
         <v>54</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="39" t="s">
         <v>54</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="39" t="s">
         <v>54</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="39" t="s">
         <v>54</v>
       </c>
@@ -12322,7 +12322,7 @@
       <c r="E448" s="33"/>
       <c r="F448" s="43"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="39" t="s">
         <v>54</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="39" t="s">
         <v>54</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="39" t="s">
         <v>54</v>
       </c>
@@ -12368,7 +12368,7 @@
       <c r="E451" s="43"/>
       <c r="F451" s="43"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="39" t="s">
         <v>54</v>
       </c>
@@ -12382,7 +12382,7 @@
       <c r="E452" s="43"/>
       <c r="F452" s="43"/>
     </row>
-    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A453" s="39" t="s">
         <v>54</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A454" s="39" t="s">
         <v>54</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="39" t="s">
         <v>54</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="39" t="s">
         <v>54</v>
       </c>
@@ -12450,7 +12450,7 @@
       <c r="E456" s="43"/>
       <c r="F456" s="43"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="39" t="s">
         <v>54</v>
       </c>
@@ -12464,7 +12464,7 @@
       <c r="E457" s="43"/>
       <c r="F457" s="43"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="39" t="s">
         <v>54</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="39" t="s">
         <v>54</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="39" t="s">
         <v>54</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A461" s="39" t="s">
         <v>54</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="39" t="s">
         <v>54</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A463" s="39" t="s">
         <v>54</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="39" t="s">
         <v>54</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="39" t="s">
         <v>54</v>
       </c>
@@ -12602,7 +12602,7 @@
       <c r="E465" s="43"/>
       <c r="F465" s="43"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="39" t="s">
         <v>54</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="39" t="s">
         <v>54</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="39" t="s">
         <v>54</v>
       </c>
@@ -12652,7 +12652,7 @@
       <c r="E468" s="43"/>
       <c r="F468" s="43"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="39" t="s">
         <v>54</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="39" t="s">
         <v>54</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A471" s="39" t="s">
         <v>54</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="39" t="s">
         <v>54</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="39" t="s">
         <v>54</v>
       </c>
@@ -12757,18 +12757,18 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>678</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -12810,7 +12810,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -12867,7 +12867,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>692</v>
       </c>
@@ -12900,22 +12900,22 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="100" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.8984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>678</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>68</v>
       </c>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>71</v>
       </c>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>74</v>
       </c>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>76</v>
       </c>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>78</v>
       </c>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>80</v>
       </c>
@@ -13052,7 +13052,7 @@
       </c>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>704</v>
       </c>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>89</v>
       </c>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>107</v>
       </c>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>92</v>
       </c>
@@ -13128,7 +13128,7 @@
       </c>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>95</v>
       </c>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>98</v>
       </c>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>101</v>
       </c>
@@ -13185,7 +13185,7 @@
       </c>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>104</v>
       </c>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>110</v>
       </c>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>113</v>
       </c>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>717</v>
       </c>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" spans="1:1025" s="59" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1025" s="59" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>126</v>
       </c>
@@ -14300,7 +14300,7 @@
       <c r="AMJ19" s="58"/>
       <c r="AMK19" s="58"/>
     </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>129</v>
       </c>
@@ -14319,7 +14319,7 @@
       </c>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>132</v>
       </c>
@@ -14338,7 +14338,7 @@
       </c>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>135</v>
       </c>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>138</v>
       </c>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>83</v>
       </c>
@@ -14395,7 +14395,7 @@
       </c>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>118</v>
       </c>
@@ -14414,7 +14414,7 @@
       </c>
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>174</v>
       </c>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="G26" s="29"/>
     </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>177</v>
       </c>
@@ -14452,7 +14452,7 @@
       </c>
       <c r="G27" s="29"/>
     </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>153</v>
       </c>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>156</v>
       </c>
@@ -14490,7 +14490,7 @@
       </c>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>159</v>
       </c>
@@ -14509,7 +14509,7 @@
       </c>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>162</v>
       </c>
@@ -14528,7 +14528,7 @@
       </c>
       <c r="G31" s="29"/>
     </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>165</v>
       </c>
@@ -14547,7 +14547,7 @@
       </c>
       <c r="G32" s="29"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>171</v>
       </c>
@@ -14566,7 +14566,7 @@
       </c>
       <c r="G33" s="29"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>210</v>
       </c>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="G34" s="29"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>213</v>
       </c>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="G35" s="29"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>216</v>
       </c>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="G36" s="29"/>
     </row>
-    <row r="37" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>219</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>454</v>
       </c>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>232</v>
       </c>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>226</v>
       </c>
@@ -14701,7 +14701,7 @@
       </c>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>224</v>
       </c>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>231</v>
       </c>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="G42" s="29"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>1005</v>
       </c>
@@ -14758,7 +14758,7 @@
       </c>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>1007</v>
       </c>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1009</v>
       </c>
@@ -14796,7 +14796,7 @@
       </c>
       <c r="G45" s="26"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>1012</v>
       </c>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="G46" s="26"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>1014</v>
       </c>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="G47" s="26"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>1020</v>
       </c>
@@ -14853,7 +14853,7 @@
       </c>
       <c r="G48" s="26"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>1023</v>
       </c>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>1026</v>
       </c>
@@ -14891,7 +14891,7 @@
       </c>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>1029</v>
       </c>
@@ -14910,7 +14910,7 @@
       </c>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>1039</v>
       </c>
@@ -14929,7 +14929,7 @@
       </c>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>1040</v>
       </c>
@@ -14948,7 +14948,7 @@
       </c>
       <c r="G53" s="26"/>
     </row>
-    <row r="54" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>1060</v>
       </c>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="G54" s="26"/>
     </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1067</v>
       </c>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="G55" s="26"/>
     </row>
-    <row r="56" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>1166</v>
       </c>
@@ -16041,19 +16041,19 @@
       <selection activeCell="E50" sqref="A1:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="10" customFormat="1" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>678</v>
       </c>
@@ -16325,7 +16325,7 @@
       <c r="IU1" s="9"/>
       <c r="IV1" s="9"/>
     </row>
-    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>752</v>
       </c>
@@ -16344,7 +16344,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>755</v>
       </c>
@@ -16363,7 +16363,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>757</v>
       </c>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>759</v>
       </c>
@@ -16401,7 +16401,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>761</v>
       </c>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>764</v>
       </c>
@@ -16439,7 +16439,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>767</v>
       </c>
@@ -16458,7 +16458,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>770</v>
       </c>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>773</v>
       </c>
@@ -16496,7 +16496,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>775</v>
       </c>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>777</v>
       </c>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>780</v>
       </c>
@@ -16553,7 +16553,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>782</v>
       </c>
@@ -16572,7 +16572,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>784</v>
       </c>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>973</v>
       </c>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>967</v>
       </c>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>786</v>
       </c>
@@ -16648,7 +16648,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>788</v>
       </c>
@@ -16667,7 +16667,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>790</v>
       </c>
@@ -16686,7 +16686,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>792</v>
       </c>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>795</v>
       </c>
@@ -16724,7 +16724,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>797</v>
       </c>
@@ -16743,7 +16743,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>799</v>
       </c>
@@ -16762,7 +16762,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>801</v>
       </c>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>804</v>
       </c>
@@ -16800,7 +16800,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>806</v>
       </c>
@@ -16819,7 +16819,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>809</v>
       </c>
@@ -16838,7 +16838,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>811</v>
       </c>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>813</v>
       </c>
@@ -16876,7 +16876,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>815</v>
       </c>
@@ -16895,7 +16895,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>818</v>
       </c>
@@ -16914,7 +16914,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>821</v>
       </c>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>824</v>
       </c>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>827</v>
       </c>
@@ -16971,7 +16971,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>829</v>
       </c>
@@ -16990,7 +16990,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>832</v>
       </c>
@@ -17009,7 +17009,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>835</v>
       </c>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>838</v>
       </c>
@@ -17047,7 +17047,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>841</v>
       </c>
@@ -17066,7 +17066,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>845</v>
       </c>
@@ -17083,7 +17083,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>848</v>
       </c>
@@ -17100,7 +17100,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>851</v>
       </c>
@@ -17119,7 +17119,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>855</v>
       </c>
@@ -17138,7 +17138,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>859</v>
       </c>
@@ -17157,7 +17157,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>863</v>
       </c>
@@ -17174,7 +17174,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>866</v>
       </c>
@@ -17191,7 +17191,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>869</v>
       </c>
@@ -17208,7 +17208,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>872</v>
       </c>
@@ -17474,7 +17474,7 @@
       <c r="IU49" s="16"/>
       <c r="IV49" s="16"/>
     </row>
-    <row r="50" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>1136</v>
       </c>
@@ -17758,21 +17758,21 @@
       <selection activeCell="G30" sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>678</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>369</v>
       </c>
@@ -17814,7 +17814,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>372</v>
       </c>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>375</v>
       </c>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>389</v>
       </c>
@@ -17871,7 +17871,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>378</v>
       </c>
@@ -17890,7 +17890,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>381</v>
       </c>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>384</v>
       </c>
@@ -17928,7 +17928,7 @@
       </c>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>387</v>
       </c>
@@ -17947,7 +17947,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>392</v>
       </c>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>1233</v>
       </c>
@@ -17985,7 +17985,7 @@
       </c>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>892</v>
       </c>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>395</v>
       </c>
@@ -18023,7 +18023,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>397</v>
       </c>
@@ -18042,7 +18042,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>400</v>
       </c>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>430</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>433</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>459</v>
       </c>
@@ -18126,7 +18126,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>462</v>
       </c>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>465</v>
       </c>
@@ -18164,7 +18164,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>468</v>
       </c>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>472</v>
       </c>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>418</v>
       </c>
@@ -18219,7 +18219,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>1097</v>
       </c>
@@ -18236,7 +18236,7 @@
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>1075</v>
       </c>
@@ -18253,7 +18253,7 @@
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>1103</v>
       </c>
@@ -18270,7 +18270,7 @@
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>1106</v>
       </c>
@@ -18287,7 +18287,7 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>1109</v>
       </c>
@@ -18304,7 +18304,7 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>1112</v>
       </c>
@@ -18321,7 +18321,7 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>1115</v>
       </c>
@@ -18356,19 +18356,19 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="75.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="75.59765625" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>678</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>911</v>
       </c>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>914</v>
       </c>
@@ -18429,7 +18429,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>916</v>
       </c>
@@ -18464,21 +18464,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="6" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="6" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="6" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="6" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>678</v>
       </c>
@@ -18750,7 +18750,7 @@
       <c r="IU1" s="12"/>
       <c r="IV1" s="12"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>918</v>
       </c>
@@ -18769,7 +18769,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>559</v>
       </c>
@@ -18788,7 +18788,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>496</v>
       </c>
@@ -18807,7 +18807,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>499</v>
       </c>
@@ -18826,7 +18826,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>502</v>
       </c>
@@ -18845,7 +18845,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>505</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>510</v>
       </c>
@@ -18887,7 +18887,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>513</v>
       </c>
@@ -18906,7 +18906,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>515</v>
       </c>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>516</v>
       </c>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>519</v>
       </c>
@@ -18963,7 +18963,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>522</v>
       </c>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>528</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>531</v>
       </c>
@@ -19021,7 +19021,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>562</v>
       </c>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>948</v>
       </c>
@@ -19059,7 +19059,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>594</v>
       </c>
@@ -19078,7 +19078,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>953</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>628</v>
       </c>
@@ -19120,7 +19120,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>630</v>
       </c>
@@ -19143,7 +19143,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>961</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="23" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>980</v>
       </c>
@@ -19432,7 +19432,7 @@
       <c r="IU23" s="16"/>
       <c r="IV23" s="16"/>
     </row>
-    <row r="24" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>978</v>
       </c>
@@ -19698,7 +19698,7 @@
       <c r="IU24" s="16"/>
       <c r="IV24" s="16"/>
     </row>
-    <row r="25" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>975</v>
       </c>
@@ -19966,7 +19966,7 @@
       <c r="IU25" s="16"/>
       <c r="IV25" s="16"/>
     </row>
-    <row r="26" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>976</v>
       </c>
@@ -20232,7 +20232,7 @@
       <c r="IU26" s="16"/>
       <c r="IV26" s="16"/>
     </row>
-    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>977</v>
       </c>
@@ -20498,7 +20498,7 @@
       <c r="IU27" s="16"/>
       <c r="IV27" s="16"/>
     </row>
-    <row r="28" spans="1:256" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1149</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="29" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1151</v>
       </c>
@@ -20552,19 +20552,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="5" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="5" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>678</v>
       </c>
@@ -20836,7 +20836,7 @@
       <c r="IU1" s="9"/>
       <c r="IV1" s="9"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1069</v>
       </c>
@@ -20857,7 +20857,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>1127</v>
       </c>
@@ -20878,7 +20878,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1130</v>
       </c>

--- a/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7F231-8A08-4EF9-8E3A-C298E5DE5910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5852032-0E96-4F4B-9292-FB71944DC92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3460,9 +3460,6 @@
     <t>CARDHOLDER_IRIS_IMAGES_OID</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.7</t>
-  </si>
-  <si>
     <t>2.5.29.31</t>
   </si>
   <si>
@@ -3812,6 +3809,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
   </si>
 </sst>
 </file>
@@ -4649,7 +4649,7 @@
         <v>53</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>996</v>
@@ -4660,10 +4660,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -4674,7 +4674,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>56</v>
@@ -4831,7 +4831,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>76</v>
@@ -4849,7 +4849,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>78</v>
@@ -4885,7 +4885,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>80</v>
@@ -4900,7 +4900,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>1</v>
@@ -4931,7 +4931,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>56</v>
@@ -5003,7 +5003,7 @@
         <v>88</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>89</v>
@@ -5147,7 +5147,7 @@
         <v>1012</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>1013</v>
@@ -5288,7 +5288,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>718</v>
@@ -5396,10 +5396,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="38" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C44" s="33" t="s">
         <v>1179</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>1180</v>
       </c>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
@@ -5427,7 +5427,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>56</v>
@@ -5499,10 +5499,10 @@
         <v>125</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
@@ -5604,7 +5604,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>2</v>
@@ -5635,7 +5635,7 @@
         <v>139</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>56</v>
@@ -5707,7 +5707,7 @@
         <v>143</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>118</v>
@@ -5794,7 +5794,7 @@
         <v>54</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>3</v>
@@ -5825,7 +5825,7 @@
         <v>148</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D69" s="38" t="s">
         <v>56</v>
@@ -5897,7 +5897,7 @@
         <v>152</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>153</v>
@@ -5915,7 +5915,7 @@
         <v>154</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D74" s="41" t="s">
         <v>156</v>
@@ -5933,7 +5933,7 @@
         <v>157</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1038</v>
@@ -5951,7 +5951,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1039</v>
@@ -5969,7 +5969,7 @@
         <v>163</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D77" s="38" t="s">
         <v>159</v>
@@ -5987,7 +5987,7 @@
         <v>1040</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D78" s="41" t="s">
         <v>162</v>
@@ -6005,7 +6005,7 @@
         <v>1041</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D79" s="38" t="s">
         <v>165</v>
@@ -6038,7 +6038,7 @@
         <v>54</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>4</v>
@@ -6069,7 +6069,7 @@
         <v>166</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D83" s="38" t="s">
         <v>56</v>
@@ -6141,7 +6141,7 @@
         <v>170</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D87" s="38" t="s">
         <v>171</v>
@@ -6210,7 +6210,7 @@
         <v>54</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>5</v>
@@ -6241,7 +6241,7 @@
         <v>178</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D93" s="38" t="s">
         <v>56</v>
@@ -6313,10 +6313,10 @@
         <v>182</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
@@ -6418,7 +6418,7 @@
         <v>54</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>6</v>
@@ -6449,7 +6449,7 @@
         <v>187</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D105" s="38" t="s">
         <v>56</v>
@@ -6521,10 +6521,10 @@
         <v>191</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
@@ -6626,7 +6626,7 @@
         <v>54</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>7</v>
@@ -6657,7 +6657,7 @@
         <v>196</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D117" s="38" t="s">
         <v>56</v>
@@ -6729,10 +6729,10 @@
         <v>200</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
@@ -6834,7 +6834,7 @@
         <v>54</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>8</v>
@@ -6865,7 +6865,7 @@
         <v>205</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D129" s="38" t="s">
         <v>56</v>
@@ -6937,7 +6937,7 @@
         <v>209</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>210</v>
@@ -7024,7 +7024,7 @@
         <v>54</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C138" s="33" t="s">
         <v>9</v>
@@ -7055,7 +7055,7 @@
         <v>220</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D140" s="38" t="s">
         <v>56</v>
@@ -7217,7 +7217,7 @@
         <v>1070</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D149" s="38" t="s">
         <v>232</v>
@@ -7232,7 +7232,7 @@
         <v>54</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>10</v>
@@ -7246,7 +7246,7 @@
         <v>54</v>
       </c>
       <c r="B151" s="38" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>11</v>
@@ -7292,7 +7292,7 @@
         <v>54</v>
       </c>
       <c r="B154" s="38" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C154" s="38" t="s">
         <v>235</v>
@@ -7308,7 +7308,7 @@
         <v>54</v>
       </c>
       <c r="B155" s="38" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C155" s="43" t="s">
         <v>14</v>
@@ -7322,7 +7322,7 @@
         <v>54</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C156" s="43" t="s">
         <v>15</v>
@@ -7336,7 +7336,7 @@
         <v>54</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C157" s="43" t="s">
         <v>16</v>
@@ -7350,7 +7350,7 @@
         <v>54</v>
       </c>
       <c r="B158" s="36" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C158" s="37" t="s">
         <v>17</v>
@@ -7364,7 +7364,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C159" s="33" t="s">
         <v>18</v>
@@ -7694,7 +7694,7 @@
         <v>54</v>
       </c>
       <c r="B178" s="38" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C178" s="45" t="s">
         <v>21</v>
@@ -8006,7 +8006,7 @@
         <v>54</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C196" s="33" t="s">
         <v>24</v>
@@ -8318,7 +8318,7 @@
         <v>54</v>
       </c>
       <c r="B214" s="38" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C214" s="45" t="s">
         <v>305</v>
@@ -8854,7 +8854,7 @@
         <v>54</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C245" s="43" t="s">
         <v>27</v>
@@ -8882,10 +8882,10 @@
         <v>54</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C247" s="46" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D247" s="38" t="s">
         <v>814</v>
@@ -8900,10 +8900,10 @@
         <v>54</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C248" s="46" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D248" s="38" t="s">
         <v>817</v>
@@ -8918,10 +8918,10 @@
         <v>54</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C249" s="46" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D249" s="38" t="s">
         <v>820</v>
@@ -8936,10 +8936,10 @@
         <v>54</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C250" s="46" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D250" s="38" t="s">
         <v>823</v>
@@ -8968,10 +8968,10 @@
         <v>54</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C252" s="38" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D252" s="38" t="s">
         <v>1068</v>
@@ -8986,10 +8986,10 @@
         <v>54</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C253" s="38" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D253" s="38" t="s">
         <v>1068</v>
@@ -9004,10 +9004,10 @@
         <v>54</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C254" s="38" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D254" s="38" t="s">
         <v>1068</v>
@@ -9022,10 +9022,10 @@
         <v>54</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C255" s="38" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D255" s="38" t="s">
         <v>1068</v>
@@ -9040,7 +9040,7 @@
         <v>54</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C256" s="33" t="s">
         <v>30</v>
@@ -9086,7 +9086,7 @@
         <v>54</v>
       </c>
       <c r="B259" s="36" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C259" s="37" t="s">
         <v>33</v>
@@ -9100,7 +9100,7 @@
         <v>54</v>
       </c>
       <c r="B260" s="38" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C260" s="33" t="s">
         <v>1</v>
@@ -9362,7 +9362,7 @@
         <v>54</v>
       </c>
       <c r="B275" s="38" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C275" s="33" t="s">
         <v>401</v>
@@ -9429,7 +9429,7 @@
         <v>407</v>
       </c>
       <c r="C279" s="46" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D279" s="38" t="s">
         <v>375</v>
@@ -9534,10 +9534,10 @@
         <v>54</v>
       </c>
       <c r="B285" s="38" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C285" s="43" t="s">
         <v>1152</v>
-      </c>
-      <c r="C285" s="43" t="s">
-        <v>1153</v>
       </c>
       <c r="D285" s="43"/>
       <c r="E285" s="43"/>
@@ -9551,7 +9551,7 @@
         <v>417</v>
       </c>
       <c r="C286" s="41" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D286" s="41" t="s">
         <v>418</v>
@@ -9659,7 +9659,7 @@
         <v>428</v>
       </c>
       <c r="C292" s="38" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D292" s="38" t="s">
         <v>430</v>
@@ -9692,7 +9692,7 @@
         <v>54</v>
       </c>
       <c r="B294" s="38" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C294" s="33" t="s">
         <v>35</v>
@@ -9867,7 +9867,7 @@
         <v>443</v>
       </c>
       <c r="C304" s="41" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D304" s="41" t="s">
         <v>418</v>
@@ -9975,7 +9975,7 @@
         <v>449</v>
       </c>
       <c r="C310" s="38" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D310" s="38" t="s">
         <v>430</v>
@@ -10008,7 +10008,7 @@
         <v>54</v>
       </c>
       <c r="B312" s="38" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C312" s="33" t="s">
         <v>8</v>
@@ -10071,10 +10071,10 @@
         <v>456</v>
       </c>
       <c r="C316" s="38" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D316" s="38" t="s">
         <v>1231</v>
-      </c>
-      <c r="D316" s="38" t="s">
-        <v>1232</v>
       </c>
       <c r="E316" s="44"/>
       <c r="F316" s="38" t="s">
@@ -10161,7 +10161,7 @@
         <v>469</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D321" s="41" t="s">
         <v>418</v>
@@ -10194,7 +10194,7 @@
         <v>54</v>
       </c>
       <c r="B323" s="38" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C323" s="47" t="s">
         <v>37</v>
@@ -10369,7 +10369,7 @@
         <v>480</v>
       </c>
       <c r="C333" s="41" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D333" s="41" t="s">
         <v>418</v>
@@ -10477,7 +10477,7 @@
         <v>1078</v>
       </c>
       <c r="C339" s="41" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D339" s="41" t="s">
         <v>430</v>
@@ -10510,7 +10510,7 @@
         <v>54</v>
       </c>
       <c r="B341" s="36" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C341" s="49" t="s">
         <v>38</v>
@@ -10798,7 +10798,7 @@
         <v>523</v>
       </c>
       <c r="D358" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
@@ -11177,7 +11177,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="39" t="s">
         <v>54</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>523</v>
       </c>
       <c r="D436" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E436" s="38"/>
       <c r="F436" s="38" t="s">
@@ -12136,7 +12136,7 @@
         <v>642</v>
       </c>
       <c r="D437" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E437" s="38"/>
       <c r="F437" s="38" t="s">
@@ -12726,7 +12726,7 @@
         <v>54</v>
       </c>
       <c r="B473" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C473" s="38" t="s">
         <v>547</v>
@@ -13003,7 +13003,7 @@
         <v>699</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
@@ -13022,7 +13022,7 @@
         <v>700</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
@@ -13041,7 +13041,7 @@
         <v>701</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
@@ -13079,7 +13079,7 @@
         <v>707</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
@@ -13234,7 +13234,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>685</v>
@@ -13271,7 +13271,7 @@
         <v>720</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30" t="s">
@@ -14403,7 +14403,7 @@
         <v>727</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
@@ -14460,7 +14460,7 @@
         <v>732</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29" t="s">
@@ -14555,7 +14555,7 @@
         <v>738</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29" t="s">
@@ -14574,7 +14574,7 @@
         <v>740</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29" t="s">
@@ -14671,7 +14671,7 @@
         <v>746</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="29" t="s">
@@ -14747,7 +14747,7 @@
         <v>1083</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26" t="s">
@@ -14766,7 +14766,7 @@
         <v>1084</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26" t="s">
@@ -14785,7 +14785,7 @@
         <v>1085</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26" t="s">
@@ -14804,7 +14804,7 @@
         <v>1086</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26" t="s">
@@ -14823,7 +14823,7 @@
         <v>1087</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26" t="s">
@@ -14842,7 +14842,7 @@
         <v>1088</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26" t="s">
@@ -14861,7 +14861,7 @@
         <v>1089</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26" t="s">
@@ -14880,7 +14880,7 @@
         <v>1090</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26" t="s">
@@ -14899,7 +14899,7 @@
         <v>1091</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26" t="s">
@@ -14918,7 +14918,7 @@
         <v>1092</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26" t="s">
@@ -14937,7 +14937,7 @@
         <v>1093</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="26" t="s">
@@ -14956,7 +14956,7 @@
         <v>1094</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="26" t="s">
@@ -14985,16 +14985,16 @@
     </row>
     <row r="56" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>1165</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="C56" s="26" t="s">
         <v>1166</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="D56" s="30" t="s">
         <v>1167</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>1168</v>
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="57" t="s">
@@ -16960,7 +16960,7 @@
         <v>827</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -17482,7 +17482,7 @@
         <v>1136</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E50" s="62"/>
       <c r="F50" s="62"/>
@@ -17965,13 +17965,13 @@
     </row>
     <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>1097</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>874</v>
@@ -17993,7 +17993,7 @@
         <v>892</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
@@ -18069,16 +18069,16 @@
         <v>898</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>685</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -18101,7 +18101,7 @@
         <v>685</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -18210,7 +18210,7 @@
         <v>909</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -18459,8 +18459,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18855,16 +18855,16 @@
         <v>929</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>685</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -19133,7 +19133,7 @@
         <v>958</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>1142</v>
+        <v>1259</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>685</v>
@@ -19156,7 +19156,7 @@
         <v>962</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>702</v>
@@ -19711,7 +19711,7 @@
         <v>536</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -20499,13 +20499,13 @@
     </row>
     <row r="28" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>918</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>523</v>
@@ -20520,13 +20520,13 @@
     </row>
     <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>918</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>524</v>

--- a/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5852032-0E96-4F4B-9292-FB71944DC92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC5E7C-789C-4F6D-991A-A0DC7FAF1E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="48" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1261">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3812,6 +3812,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
+  </si>
+  <si>
+    <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
   </si>
 </sst>
 </file>
@@ -4619,8 +4622,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView topLeftCell="A354" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C367" sqref="C367"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F293" sqref="F293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9903,7 +9906,7 @@
         <v>445</v>
       </c>
       <c r="C306" s="41" t="s">
-        <v>422</v>
+        <v>1260</v>
       </c>
       <c r="D306" s="41" t="s">
         <v>891</v>
@@ -18459,7 +18462,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC5E7C-789C-4F6D-991A-A0DC7FAF1E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469AAE4A-492C-4EB5-A0BD-782CA242BE22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="48" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="1264">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3815,6 +3815,15 @@
   </si>
   <si>
     <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
+  </si>
+  <si>
+    <t>digestAlgorithm field value of the SignerInfo is in accordance with Table 3-2 of SP 800-78</t>
+  </si>
+  <si>
+    <t>10.4.2.8</t>
+  </si>
+  <si>
+    <t>The signature in the SignerInfo corresponds to the signed security object and that it is it signed with the certificate that is used to sign the CHUID.</t>
   </si>
 </sst>
 </file>
@@ -3894,7 +3903,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3957,6 +3966,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4044,7 +4059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4230,6 +4245,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4620,10 +4647,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F473"/>
+  <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F293" sqref="F293"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9691,10 +9718,10 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B294" s="38" t="s">
+      <c r="A294" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B294" s="52" t="s">
         <v>1192</v>
       </c>
       <c r="C294" s="33" t="s">
@@ -9705,10 +9732,10 @@
       <c r="F294" s="43"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B295" s="38" t="s">
+      <c r="A295" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B295" s="52" t="s">
         <v>434</v>
       </c>
       <c r="C295" s="43" t="s">
@@ -10007,10 +10034,10 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B312" s="38" t="s">
+      <c r="A312" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B312" s="52" t="s">
         <v>1191</v>
       </c>
       <c r="C312" s="33" t="s">
@@ -10021,10 +10048,10 @@
       <c r="F312" s="43"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B313" s="38" t="s">
+      <c r="A313" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B313" s="52" t="s">
         <v>451</v>
       </c>
       <c r="C313" s="43" t="s">
@@ -10053,10 +10080,10 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B315" s="38" t="s">
+      <c r="A315" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B315" s="52" t="s">
         <v>455</v>
       </c>
       <c r="C315" s="43" t="s">
@@ -10164,9 +10191,9 @@
         <v>469</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D321" s="41" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D321" s="38" t="s">
         <v>418</v>
       </c>
       <c r="E321" s="38"/>
@@ -10184,7 +10211,7 @@
       <c r="C322" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="D322" s="41" t="s">
+      <c r="D322" s="38" t="s">
         <v>397</v>
       </c>
       <c r="E322" s="38"/>
@@ -10192,82 +10219,82 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B323" s="38" t="s">
+    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A323" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B323" s="65" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C323" s="66" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D323" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="E323" s="65"/>
+      <c r="F323" s="65" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B324" s="52" t="s">
         <v>1190</v>
       </c>
-      <c r="C323" s="47" t="s">
+      <c r="C324" s="47" t="s">
         <v>37</v>
-      </c>
-      <c r="D323" s="43"/>
-      <c r="E323" s="43"/>
-      <c r="F323" s="43"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B324" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="C324" s="48" t="s">
-        <v>34</v>
       </c>
       <c r="D324" s="43"/>
       <c r="E324" s="43"/>
       <c r="F324" s="43"/>
     </row>
-    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A325" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B325" s="38" t="s">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B325" s="52" t="s">
+        <v>473</v>
+      </c>
+      <c r="C325" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D325" s="43"/>
+      <c r="E325" s="43"/>
+      <c r="F325" s="43"/>
+    </row>
+    <row r="326" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A326" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B326" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="C325" s="38" t="s">
+      <c r="C326" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="D325" s="38" t="s">
+      <c r="D326" s="38" t="s">
         <v>369</v>
-      </c>
-      <c r="E325" s="38"/>
-      <c r="F325" s="38" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B326" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="C326" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D326" s="38" t="s">
-        <v>372</v>
       </c>
       <c r="E326" s="38"/>
       <c r="F326" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B327" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="C327" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="D327" s="41" t="s">
-        <v>389</v>
+        <v>475</v>
+      </c>
+      <c r="C327" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D327" s="38" t="s">
+        <v>372</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38" t="s">
@@ -10279,31 +10306,31 @@
         <v>54</v>
       </c>
       <c r="B328" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C328" s="41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D328" s="41" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="E328" s="38"/>
       <c r="F328" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A329" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B329" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C329" s="41" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="D329" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E329" s="38"/>
       <c r="F329" s="38" t="s">
@@ -10315,13 +10342,13 @@
         <v>54</v>
       </c>
       <c r="B330" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C330" s="41" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D330" s="41" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E330" s="38"/>
       <c r="F330" s="38" t="s">
@@ -10333,31 +10360,31 @@
         <v>54</v>
       </c>
       <c r="B331" s="38" t="s">
-        <v>1076</v>
+        <v>479</v>
       </c>
       <c r="C331" s="41" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="D331" s="41" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E331" s="38"/>
       <c r="F331" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C332" s="41" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D332" s="41" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E332" s="38"/>
       <c r="F332" s="38" t="s">
@@ -10369,13 +10396,13 @@
         <v>54</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>480</v>
+        <v>1077</v>
       </c>
       <c r="C333" s="41" t="s">
-        <v>1233</v>
+        <v>416</v>
       </c>
       <c r="D333" s="41" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="E333" s="38"/>
       <c r="F333" s="38" t="s">
@@ -10387,13 +10414,13 @@
         <v>54</v>
       </c>
       <c r="B334" s="38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C334" s="41" t="s">
-        <v>420</v>
+        <v>1233</v>
       </c>
       <c r="D334" s="41" t="s">
-        <v>1074</v>
+        <v>418</v>
       </c>
       <c r="E334" s="38"/>
       <c r="F334" s="38" t="s">
@@ -10405,49 +10432,49 @@
         <v>54</v>
       </c>
       <c r="B335" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C335" s="41" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D335" s="41" t="s">
-        <v>891</v>
+        <v>1074</v>
       </c>
       <c r="E335" s="38"/>
       <c r="F335" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A336" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B336" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="C336" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="D336" s="38" t="s">
-        <v>395</v>
+        <v>482</v>
+      </c>
+      <c r="C336" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="D336" s="41" t="s">
+        <v>891</v>
       </c>
       <c r="E336" s="38"/>
       <c r="F336" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A337" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B337" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="C337" s="46" t="s">
-        <v>426</v>
+        <v>483</v>
+      </c>
+      <c r="C337" s="38" t="s">
+        <v>424</v>
       </c>
       <c r="D337" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E337" s="38"/>
       <c r="F337" s="38" t="s">
@@ -10455,82 +10482,86 @@
       </c>
     </row>
     <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="A338" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B338" s="41" t="s">
+      <c r="A338" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B338" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="C338" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="D338" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="E338" s="38"/>
+      <c r="F338" s="38" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A339" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B339" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C338" s="41" t="s">
+      <c r="C339" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="D338" s="41" t="s">
+      <c r="D339" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="E338" s="41"/>
-      <c r="F338" s="41" t="s">
+      <c r="E339" s="41"/>
+      <c r="F339" s="41" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A339" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B339" s="38" t="s">
+    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A340" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B340" s="38" t="s">
         <v>1078</v>
       </c>
-      <c r="C339" s="41" t="s">
+      <c r="C340" s="41" t="s">
         <v>1199</v>
       </c>
-      <c r="D339" s="41" t="s">
+      <c r="D340" s="41" t="s">
         <v>430</v>
-      </c>
-      <c r="E339" s="38"/>
-      <c r="F339" s="38" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A340" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B340" s="38" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C340" s="46" t="s">
-        <v>432</v>
-      </c>
-      <c r="D340" s="38" t="s">
-        <v>433</v>
       </c>
       <c r="E340" s="38"/>
       <c r="F340" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A341" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B341" s="36" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C341" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D341" s="43"/>
-      <c r="E341" s="43"/>
-      <c r="F341" s="43"/>
+      <c r="B341" s="38" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C341" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="D341" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="E341" s="38"/>
+      <c r="F341" s="38" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B342" s="38">
-        <v>11.1</v>
-      </c>
-      <c r="C342" s="47" t="s">
-        <v>39</v>
+      <c r="B342" s="36" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C342" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="D342" s="43"/>
       <c r="E342" s="43"/>
@@ -10540,46 +10571,42 @@
       <c r="A343" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B343" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="C343" s="48" t="s">
-        <v>40</v>
+      <c r="B343" s="38">
+        <v>11.1</v>
+      </c>
+      <c r="C343" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="D343" s="43"/>
       <c r="E343" s="43"/>
       <c r="F343" s="43"/>
     </row>
-    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B344" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C344" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D344" s="43"/>
+      <c r="E344" s="43"/>
+      <c r="F344" s="43"/>
+    </row>
+    <row r="345" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A345" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B345" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="C344" s="46" t="s">
+      <c r="C345" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="D344" s="38">
+      <c r="D345" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E344" s="38"/>
-      <c r="F344" s="38" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A345" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B345" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="C345" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="D345" s="38">
-        <v>78.099999999999994</v>
       </c>
       <c r="E345" s="38"/>
       <c r="F345" s="38" t="s">
@@ -10591,10 +10618,10 @@
         <v>54</v>
       </c>
       <c r="B346" s="38" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C346" s="46" t="s">
-        <v>1080</v>
+        <v>490</v>
       </c>
       <c r="D346" s="38">
         <v>78.099999999999994</v>
@@ -10604,50 +10631,50 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A347" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B347" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="C347" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D347" s="43"/>
-      <c r="E347" s="43"/>
-      <c r="F347" s="43"/>
+        <v>491</v>
+      </c>
+      <c r="C347" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D347" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E347" s="38"/>
+      <c r="F347" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B348" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="C348" s="46" t="s">
-        <v>495</v>
-      </c>
-      <c r="D348" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="E348" s="38"/>
-      <c r="F348" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C348" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D348" s="43"/>
+      <c r="E348" s="43"/>
+      <c r="F348" s="43"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B349" s="38" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C349" s="46" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
@@ -10659,81 +10686,81 @@
         <v>54</v>
       </c>
       <c r="B350" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="C350" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
+      </c>
+      <c r="C350" s="46" t="s">
+        <v>498</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B351" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="C351" s="46" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="C351" s="38" t="s">
+        <v>501</v>
       </c>
       <c r="D351" s="38" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E351" s="38"/>
       <c r="F351" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A352" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B352" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="C352" s="43" t="s">
-        <v>507</v>
-      </c>
-      <c r="D352" s="43"/>
-      <c r="E352" s="43"/>
-      <c r="F352" s="43"/>
+        <v>503</v>
+      </c>
+      <c r="C352" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="D352" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E352" s="38"/>
+      <c r="F352" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B353" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="C353" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D353" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E353" s="38"/>
-      <c r="F353" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C353" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="D353" s="43"/>
+      <c r="E353" s="43"/>
+      <c r="F353" s="43"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C354" s="46" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D354" s="38" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E354" s="38"/>
       <c r="F354" s="38" t="s">
@@ -10745,81 +10772,81 @@
         <v>54</v>
       </c>
       <c r="B355" s="38" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C355" s="46" t="s">
-        <v>978</v>
+        <v>512</v>
       </c>
       <c r="D355" s="38" t="s">
-        <v>977</v>
+        <v>513</v>
       </c>
       <c r="E355" s="38"/>
       <c r="F355" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B356" s="38" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C356" s="46" t="s">
-        <v>563</v>
+        <v>978</v>
       </c>
       <c r="D356" s="38" t="s">
-        <v>518</v>
+        <v>977</v>
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A357" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B357" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="C357" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="D357" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="E357" s="38"/>
+      <c r="F357" s="38" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B358" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="C357" s="43" t="s">
+      <c r="C358" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="D357" s="43"/>
-      <c r="E357" s="43"/>
-      <c r="F357" s="43"/>
-    </row>
-    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A358" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B358" s="38" t="s">
+      <c r="D358" s="43"/>
+      <c r="E358" s="43"/>
+      <c r="F358" s="43"/>
+    </row>
+    <row r="359" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A359" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B359" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="C358" s="46" t="s">
+      <c r="C359" s="46" t="s">
         <v>523</v>
       </c>
-      <c r="D358" s="38" t="s">
+      <c r="D359" s="38" t="s">
         <v>1147</v>
-      </c>
-      <c r="E358" s="38"/>
-      <c r="F358" s="38" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A359" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B359" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="C359" s="46" t="s">
-        <v>526</v>
-      </c>
-      <c r="D359" s="38" t="s">
-        <v>527</v>
       </c>
       <c r="E359" s="38"/>
       <c r="F359" s="38" t="s">
@@ -10831,63 +10858,63 @@
         <v>54</v>
       </c>
       <c r="B360" s="38" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C360" s="46" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D360" s="38" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E360" s="38"/>
       <c r="F360" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A361" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="C361" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="D361" s="43"/>
-      <c r="E361" s="43"/>
-      <c r="F361" s="43"/>
+        <v>528</v>
+      </c>
+      <c r="C361" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="D361" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="E361" s="38"/>
+      <c r="F361" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B362" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="C362" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="D362" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E362" s="38"/>
-      <c r="F362" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C362" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D362" s="43"/>
+      <c r="E362" s="43"/>
+      <c r="F362" s="43"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="C363" s="38" t="s">
-        <v>536</v>
+        <v>533</v>
+      </c>
+      <c r="C363" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="D363" s="38" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
@@ -10899,81 +10926,81 @@
         <v>54</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="C364" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D364" s="43"/>
-      <c r="E364" s="43"/>
-      <c r="F364" s="43"/>
+        <v>535</v>
+      </c>
+      <c r="C364" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D364" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="E364" s="38"/>
+      <c r="F364" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="C365" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D365" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E365" s="38"/>
-      <c r="F365" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="C365" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D365" s="43"/>
+      <c r="E365" s="43"/>
+      <c r="F365" s="43"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B366" s="38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C366" s="46" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="D366" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="E366" s="44"/>
+        <v>510</v>
+      </c>
+      <c r="E366" s="38"/>
       <c r="F366" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B367" s="38" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C367" s="46" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D367" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E367" s="38"/>
+        <v>979</v>
+      </c>
+      <c r="E367" s="44"/>
       <c r="F367" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A368" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B368" s="38" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C368" s="46" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D368" s="38" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E368" s="38"/>
       <c r="F368" s="38" t="s">
@@ -10985,13 +11012,13 @@
         <v>54</v>
       </c>
       <c r="B369" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="C369" s="38" t="s">
-        <v>547</v>
+        <v>544</v>
+      </c>
+      <c r="C369" s="46" t="s">
+        <v>545</v>
       </c>
       <c r="D369" s="38" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E369" s="38"/>
       <c r="F369" s="38" t="s">
@@ -11002,78 +11029,78 @@
       <c r="A370" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B370" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="C370" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D370" s="43"/>
-      <c r="E370" s="43"/>
-      <c r="F370" s="43"/>
+      <c r="B370" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="C370" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D370" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="E370" s="38"/>
+      <c r="F370" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B371" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="C371" s="43" t="s">
-        <v>40</v>
+      <c r="B371" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="C371" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="D371" s="43"/>
       <c r="E371" s="43"/>
       <c r="F371" s="43"/>
     </row>
-    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B372" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="C372" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D372" s="43"/>
+      <c r="E372" s="43"/>
+      <c r="F372" s="43"/>
+    </row>
+    <row r="373" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A373" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B373" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="C372" s="46" t="s">
+      <c r="C373" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="D372" s="38" t="s">
+      <c r="D373" s="38" t="s">
         <v>915</v>
-      </c>
-      <c r="E372" s="38"/>
-      <c r="F372" s="38" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A373" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B373" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="C373" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="D373" s="38" t="s">
-        <v>910</v>
       </c>
       <c r="E373" s="38"/>
       <c r="F373" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A374" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B374" s="38" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C374" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="D374" s="38">
-        <v>78.099999999999994</v>
+        <v>551</v>
+      </c>
+      <c r="D374" s="38" t="s">
+        <v>910</v>
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
@@ -11085,24 +11112,28 @@
         <v>54</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="C375" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D375" s="43"/>
-      <c r="E375" s="43"/>
-      <c r="F375" s="43"/>
+        <v>552</v>
+      </c>
+      <c r="C375" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="D375" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E375" s="38"/>
+      <c r="F375" s="38" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B376" s="38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C376" s="43" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D376" s="43"/>
       <c r="E376" s="43"/>
@@ -11113,49 +11144,45 @@
         <v>54</v>
       </c>
       <c r="B377" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="C377" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="D377" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="E377" s="38"/>
-      <c r="F377" s="38" t="s">
-        <v>1047</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="C377" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="D377" s="43"/>
+      <c r="E377" s="43"/>
+      <c r="F377" s="43"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B378" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="C378" s="46" t="s">
-        <v>560</v>
+        <v>556</v>
+      </c>
+      <c r="C378" s="38" t="s">
+        <v>557</v>
       </c>
       <c r="D378" s="38" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B379" s="38" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C379" s="46" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D379" s="38" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="E379" s="38"/>
       <c r="F379" s="38" t="s">
@@ -11167,31 +11194,31 @@
         <v>54</v>
       </c>
       <c r="B380" s="38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C380" s="46" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D380" s="38" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A381" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C381" s="46" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D381" s="38" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E381" s="38"/>
       <c r="F381" s="38" t="s">
@@ -11203,63 +11230,63 @@
         <v>54</v>
       </c>
       <c r="B382" s="38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C382" s="46" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D382" s="38" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="E382" s="38"/>
       <c r="F382" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A383" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B383" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C383" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="D383" s="43"/>
-      <c r="E383" s="43"/>
-      <c r="F383" s="43"/>
+        <v>568</v>
+      </c>
+      <c r="C383" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="D383" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E383" s="38"/>
+      <c r="F383" s="38" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="C384" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="D384" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E384" s="38"/>
-      <c r="F384" s="38" t="s">
-        <v>1047</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="C384" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D384" s="43"/>
+      <c r="E384" s="43"/>
+      <c r="F384" s="43"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B385" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="C385" s="38" t="s">
-        <v>536</v>
+        <v>571</v>
+      </c>
+      <c r="C385" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="D385" s="38" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
@@ -11271,81 +11298,81 @@
         <v>54</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="C386" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D386" s="43"/>
-      <c r="E386" s="43"/>
-      <c r="F386" s="43"/>
+        <v>572</v>
+      </c>
+      <c r="C386" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D386" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="E386" s="38"/>
+      <c r="F386" s="38" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B387" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="C387" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D387" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E387" s="38"/>
-      <c r="F387" s="38" t="s">
-        <v>1047</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C387" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D387" s="43"/>
+      <c r="E387" s="43"/>
+      <c r="F387" s="43"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B388" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C388" s="46" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="D388" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="E388" s="44"/>
+        <v>510</v>
+      </c>
+      <c r="E388" s="38"/>
       <c r="F388" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B389" s="38" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C389" s="46" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D389" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E389" s="38"/>
+        <v>979</v>
+      </c>
+      <c r="E389" s="44"/>
       <c r="F389" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A390" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B390" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C390" s="46" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D390" s="38" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E390" s="38"/>
       <c r="F390" s="38" t="s">
@@ -11357,13 +11384,13 @@
         <v>54</v>
       </c>
       <c r="B391" s="38" t="s">
-        <v>579</v>
-      </c>
-      <c r="C391" s="38" t="s">
-        <v>547</v>
+        <v>578</v>
+      </c>
+      <c r="C391" s="46" t="s">
+        <v>545</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E391" s="38"/>
       <c r="F391" s="38" t="s">
@@ -11374,78 +11401,78 @@
       <c r="A392" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B392" s="38">
-        <v>11.3</v>
-      </c>
-      <c r="C392" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D392" s="43"/>
-      <c r="E392" s="43"/>
-      <c r="F392" s="43"/>
+      <c r="B392" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="C392" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D392" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="E392" s="38"/>
+      <c r="F392" s="38" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B393" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="C393" s="43" t="s">
-        <v>40</v>
+      <c r="B393" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="C393" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="D393" s="43"/>
       <c r="E393" s="43"/>
       <c r="F393" s="43"/>
     </row>
-    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B394" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="C394" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D394" s="43"/>
+      <c r="E394" s="43"/>
+      <c r="F394" s="43"/>
+    </row>
+    <row r="395" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A395" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B395" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="C394" s="46" t="s">
+      <c r="C395" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="D394" s="38">
+      <c r="D395" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E394" s="38"/>
-      <c r="F394" s="38" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A395" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B395" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="C395" s="38" t="s">
-        <v>584</v>
-      </c>
-      <c r="D395" s="38" t="s">
-        <v>910</v>
       </c>
       <c r="E395" s="38"/>
       <c r="F395" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A396" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B396" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="C396" s="46" t="s">
-        <v>586</v>
-      </c>
-      <c r="D396" s="38">
-        <v>78.099999999999994</v>
+        <v>583</v>
+      </c>
+      <c r="C396" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="D396" s="38" t="s">
+        <v>910</v>
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
@@ -11457,95 +11484,95 @@
         <v>54</v>
       </c>
       <c r="B397" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="C397" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D397" s="43"/>
-      <c r="E397" s="43"/>
-      <c r="F397" s="43"/>
+        <v>585</v>
+      </c>
+      <c r="C397" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="D397" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E397" s="38"/>
+      <c r="F397" s="38" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B398" s="38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C398" s="43" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D398" s="43"/>
       <c r="E398" s="43"/>
       <c r="F398" s="43"/>
     </row>
-    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B399" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="C399" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="D399" s="38" t="s">
-        <v>947</v>
-      </c>
-      <c r="E399" s="38"/>
-      <c r="F399" s="38" t="s">
-        <v>1050</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="C399" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="D399" s="43"/>
+      <c r="E399" s="43"/>
+      <c r="F399" s="43"/>
     </row>
     <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A400" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B400" s="38" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C400" s="46" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D400" s="38" t="s">
-        <v>593</v>
+        <v>947</v>
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A401" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B401" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C401" s="46" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D401" s="38" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
       <c r="E401" s="38"/>
       <c r="F401" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B402" s="38" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C402" s="46" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D402" s="38" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
@@ -11557,13 +11584,13 @@
         <v>54</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C403" s="46" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D403" s="38" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="E403" s="38"/>
       <c r="F403" s="38" t="s">
@@ -11575,63 +11602,63 @@
         <v>54</v>
       </c>
       <c r="B404" s="38" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C404" s="46" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="D404" s="38" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="E404" s="38"/>
       <c r="F404" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A405" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B405" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="C405" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="D405" s="43"/>
-      <c r="E405" s="43"/>
-      <c r="F405" s="43"/>
+        <v>600</v>
+      </c>
+      <c r="C405" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="D405" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E405" s="38"/>
+      <c r="F405" s="38" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="C406" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="D406" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E406" s="38"/>
-      <c r="F406" s="38" t="s">
-        <v>1050</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C406" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D406" s="43"/>
+      <c r="E406" s="43"/>
+      <c r="F406" s="43"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="C407" s="38" t="s">
-        <v>536</v>
+        <v>602</v>
+      </c>
+      <c r="C407" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="D407" s="38" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
@@ -11643,81 +11670,81 @@
         <v>54</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="C408" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D408" s="43"/>
-      <c r="E408" s="43"/>
-      <c r="F408" s="43"/>
+        <v>603</v>
+      </c>
+      <c r="C408" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D408" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="E408" s="38"/>
+      <c r="F408" s="38" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>605</v>
-      </c>
-      <c r="C409" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D409" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E409" s="38"/>
-      <c r="F409" s="38" t="s">
-        <v>1050</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="C409" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D409" s="43"/>
+      <c r="E409" s="43"/>
+      <c r="F409" s="43"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B410" s="38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C410" s="46" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="D410" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="E410" s="44"/>
+        <v>510</v>
+      </c>
+      <c r="E410" s="38"/>
       <c r="F410" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B411" s="38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C411" s="46" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D411" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E411" s="38"/>
+        <v>979</v>
+      </c>
+      <c r="E411" s="44"/>
       <c r="F411" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A412" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B412" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="C412" s="38" t="s">
-        <v>545</v>
+        <v>607</v>
+      </c>
+      <c r="C412" s="46" t="s">
+        <v>543</v>
       </c>
       <c r="D412" s="38" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E412" s="38"/>
       <c r="F412" s="38" t="s">
@@ -11729,13 +11756,13 @@
         <v>54</v>
       </c>
       <c r="B413" s="38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C413" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D413" s="38" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E413" s="38"/>
       <c r="F413" s="38" t="s">
@@ -11746,75 +11773,75 @@
       <c r="A414" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B414" s="38">
-        <v>11.4</v>
-      </c>
-      <c r="C414" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D414" s="43"/>
-      <c r="E414" s="43"/>
-      <c r="F414" s="43"/>
+      <c r="B414" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="C414" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D414" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="E414" s="38"/>
+      <c r="F414" s="38" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B415" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="C415" s="43" t="s">
-        <v>40</v>
+      <c r="B415" s="38">
+        <v>11.4</v>
+      </c>
+      <c r="C415" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="D415" s="43"/>
       <c r="E415" s="43"/>
       <c r="F415" s="43"/>
     </row>
-    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B416" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="C416" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D416" s="43"/>
+      <c r="E416" s="43"/>
+      <c r="F416" s="43"/>
+    </row>
+    <row r="417" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A417" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B417" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="C416" s="46" t="s">
+      <c r="C417" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="D416" s="38">
+      <c r="D417" s="38">
         <v>78.3</v>
       </c>
-      <c r="E416" s="4"/>
-      <c r="F416" s="38" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A417" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B417" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="C417" s="46" t="s">
-        <v>613</v>
-      </c>
-      <c r="D417" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E417" s="38"/>
+      <c r="E417" s="4"/>
       <c r="F417" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A418" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C418" s="46" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="D418" s="38">
         <v>78.099999999999994</v>
@@ -11829,24 +11856,28 @@
         <v>54</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>615</v>
-      </c>
-      <c r="C419" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D419" s="43"/>
-      <c r="E419" s="43"/>
-      <c r="F419" s="43"/>
+        <v>614</v>
+      </c>
+      <c r="C419" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="D419" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E419" s="38"/>
+      <c r="F419" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C420" s="43" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D420" s="43"/>
       <c r="E420" s="43"/>
@@ -11857,31 +11888,27 @@
         <v>54</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="C421" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="D421" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="E421" s="38"/>
-      <c r="F421" s="38" t="s">
-        <v>1053</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C421" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="D421" s="43"/>
+      <c r="E421" s="43"/>
+      <c r="F421" s="43"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="C422" s="46" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="C422" s="38" t="s">
+        <v>557</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
@@ -11893,81 +11920,81 @@
         <v>54</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C423" s="46" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D423" s="38" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E423" s="38"/>
       <c r="F423" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="C424" s="38" t="s">
-        <v>623</v>
+        <v>620</v>
+      </c>
+      <c r="C424" s="46" t="s">
+        <v>621</v>
       </c>
       <c r="D424" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E424" s="38"/>
       <c r="F424" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A425" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B425" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="C425" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="D425" s="43"/>
-      <c r="E425" s="43"/>
-      <c r="F425" s="43"/>
+        <v>622</v>
+      </c>
+      <c r="C425" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="D425" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E425" s="38"/>
+      <c r="F425" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="C426" s="38" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D426" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="E426" s="38"/>
-      <c r="F426" s="38" t="s">
-        <v>1053</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="C426" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="D426" s="43"/>
+      <c r="E426" s="43"/>
+      <c r="F426" s="43"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C427" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D427" s="38" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E427" s="38"/>
       <c r="F427" s="38" t="s">
@@ -11979,10 +12006,10 @@
         <v>54</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C428" s="38" t="s">
-        <v>631</v>
+        <v>1133</v>
       </c>
       <c r="D428" s="38" t="s">
         <v>629</v>
@@ -11997,78 +12024,78 @@
         <v>54</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>632</v>
-      </c>
-      <c r="C429" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D429" s="43"/>
-      <c r="E429" s="43"/>
-      <c r="F429" s="43"/>
+        <v>630</v>
+      </c>
+      <c r="C429" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="D429" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="E429" s="38"/>
+      <c r="F429" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>633</v>
-      </c>
-      <c r="C430" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D430" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E430" s="38"/>
-      <c r="F430" s="38" t="s">
-        <v>1053</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C430" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D430" s="43"/>
+      <c r="E430" s="43"/>
+      <c r="F430" s="43"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C431" s="46" t="s">
-        <v>635</v>
+        <v>509</v>
       </c>
       <c r="D431" s="38" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E431" s="38"/>
       <c r="F431" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C432" s="46" t="s">
-        <v>543</v>
+        <v>635</v>
       </c>
       <c r="D432" s="38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E432" s="38"/>
       <c r="F432" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A433" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B433" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C433" s="38" t="s">
-        <v>545</v>
+        <v>636</v>
+      </c>
+      <c r="C433" s="46" t="s">
+        <v>543</v>
       </c>
       <c r="D433" s="38" t="s">
         <v>515</v>
@@ -12078,136 +12105,136 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>638</v>
-      </c>
-      <c r="C434" s="46" t="s">
-        <v>597</v>
+        <v>637</v>
+      </c>
+      <c r="C434" s="38" t="s">
+        <v>545</v>
       </c>
       <c r="D434" s="38" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E434" s="38"/>
       <c r="F434" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A435" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B435" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="C435" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="D435" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="E435" s="38"/>
+      <c r="F435" s="38" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B436" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="C435" s="43" t="s">
+      <c r="C436" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="D435" s="43"/>
-      <c r="E435" s="43"/>
-      <c r="F435" s="43"/>
-    </row>
-    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A436" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B436" s="38" t="s">
+      <c r="D436" s="43"/>
+      <c r="E436" s="43"/>
+      <c r="F436" s="43"/>
+    </row>
+    <row r="437" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A437" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B437" s="38" t="s">
         <v>640</v>
       </c>
-      <c r="C436" s="46" t="s">
+      <c r="C437" s="46" t="s">
         <v>523</v>
       </c>
-      <c r="D436" s="38" t="s">
+      <c r="D437" s="38" t="s">
         <v>1147</v>
-      </c>
-      <c r="E436" s="38"/>
-      <c r="F436" s="38" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A437" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B437" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="C437" s="46" t="s">
-        <v>642</v>
-      </c>
-      <c r="D437" s="38" t="s">
-        <v>1149</v>
       </c>
       <c r="E437" s="38"/>
       <c r="F437" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B438" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C438" s="46" t="s">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="D438" s="38" t="s">
-        <v>530</v>
+        <v>1149</v>
       </c>
       <c r="E438" s="38"/>
       <c r="F438" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A439" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B439" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="C439" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="D439" s="43"/>
-      <c r="E439" s="43"/>
-      <c r="F439" s="43"/>
+        <v>643</v>
+      </c>
+      <c r="C439" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="D439" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="E439" s="38"/>
+      <c r="F439" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="C440" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="D440" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E440" s="38"/>
-      <c r="F440" s="38" t="s">
-        <v>1053</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="C440" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D440" s="43"/>
+      <c r="E440" s="43"/>
+      <c r="F440" s="43"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B441" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="C441" s="38" t="s">
-        <v>536</v>
+        <v>645</v>
+      </c>
+      <c r="C441" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E441" s="38"/>
       <c r="F441" s="38" t="s">
@@ -12219,72 +12246,74 @@
         <v>54</v>
       </c>
       <c r="B442" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="C442" s="43" t="s">
-        <v>984</v>
-      </c>
-      <c r="D442" s="43"/>
-      <c r="E442" s="43"/>
-      <c r="F442" s="43"/>
+        <v>646</v>
+      </c>
+      <c r="C442" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D442" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="E442" s="38"/>
+      <c r="F442" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="C443" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="D443" s="38" t="s">
-        <v>975</v>
-      </c>
-      <c r="E443" s="38"/>
-      <c r="F443" s="38" t="s">
-        <v>1053</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="C443" s="43" t="s">
+        <v>984</v>
+      </c>
+      <c r="D443" s="43"/>
+      <c r="E443" s="43"/>
+      <c r="F443" s="43"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B444" s="38">
-        <v>11.5</v>
-      </c>
-      <c r="C444" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D444" s="43"/>
-      <c r="E444" s="43"/>
-      <c r="F444" s="43"/>
+      <c r="B444" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="C444" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D444" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="E444" s="38"/>
+      <c r="F444" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B445" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="C445" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D445" s="38"/>
-      <c r="E445" s="46"/>
-      <c r="F445" s="38" t="s">
-        <v>1053</v>
-      </c>
+      <c r="B445" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="C445" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D445" s="43"/>
+      <c r="E445" s="43"/>
+      <c r="F445" s="43"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B446" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C446" s="46" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D446" s="38"/>
       <c r="E446" s="46"/>
@@ -12297,10 +12326,10 @@
         <v>54</v>
       </c>
       <c r="B447" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C447" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D447" s="38"/>
       <c r="E447" s="46"/>
@@ -12312,41 +12341,41 @@
       <c r="A448" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B448" s="38">
-        <v>11.6</v>
-      </c>
-      <c r="C448" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D448" s="43"/>
-      <c r="E448" s="33"/>
-      <c r="F448" s="43"/>
+      <c r="B448" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="C448" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D448" s="38"/>
+      <c r="E448" s="46"/>
+      <c r="F448" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B449" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="C449" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D449" s="38"/>
-      <c r="E449" s="46"/>
-      <c r="F449" s="38" t="s">
-        <v>1053</v>
-      </c>
+      <c r="B449" s="38">
+        <v>11.6</v>
+      </c>
+      <c r="C449" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D449" s="43"/>
+      <c r="E449" s="33"/>
+      <c r="F449" s="43"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C450" s="46" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D450" s="38"/>
       <c r="E450" s="46"/>
@@ -12358,75 +12387,73 @@
       <c r="A451" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B451" s="38">
-        <v>11.7</v>
-      </c>
-      <c r="C451" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D451" s="43"/>
-      <c r="E451" s="43"/>
-      <c r="F451" s="43"/>
+      <c r="B451" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="C451" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D451" s="38"/>
+      <c r="E451" s="46"/>
+      <c r="F451" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B452" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="C452" s="43" t="s">
-        <v>40</v>
+      <c r="B452" s="38">
+        <v>11.7</v>
+      </c>
+      <c r="C452" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="D452" s="43"/>
       <c r="E452" s="43"/>
       <c r="F452" s="43"/>
     </row>
-    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B453" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="C453" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D453" s="43"/>
+      <c r="E453" s="43"/>
+      <c r="F453" s="43"/>
+    </row>
+    <row r="454" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A454" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B454" s="38" t="s">
         <v>655</v>
       </c>
-      <c r="C453" s="46" t="s">
+      <c r="C454" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="D453" s="38">
+      <c r="D454" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E453" s="38"/>
-      <c r="F453" s="38" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A454" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B454" s="38" t="s">
-        <v>656</v>
-      </c>
-      <c r="C454" s="46" t="s">
-        <v>613</v>
-      </c>
-      <c r="D454" s="38">
-        <v>78.099999999999994</v>
       </c>
       <c r="E454" s="38"/>
       <c r="F454" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A455" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B455" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C455" s="46" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="D455" s="38">
         <v>78.099999999999994</v>
@@ -12441,24 +12468,28 @@
         <v>54</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="C456" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D456" s="43"/>
-      <c r="E456" s="43"/>
-      <c r="F456" s="43"/>
+        <v>657</v>
+      </c>
+      <c r="C456" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="D456" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E456" s="38"/>
+      <c r="F456" s="38" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B457" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C457" s="43" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D457" s="43"/>
       <c r="E457" s="43"/>
@@ -12469,31 +12500,27 @@
         <v>54</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>660</v>
-      </c>
-      <c r="C458" s="46" t="s">
-        <v>661</v>
-      </c>
-      <c r="D458" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="E458" s="38"/>
-      <c r="F458" s="38" t="s">
-        <v>1001</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="C458" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="D458" s="43"/>
+      <c r="E458" s="43"/>
+      <c r="F458" s="43"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C459" s="46" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="D459" s="38" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
@@ -12505,83 +12532,83 @@
         <v>54</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="C460" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
+      </c>
+      <c r="C460" s="46" t="s">
+        <v>621</v>
       </c>
       <c r="D460" s="38" t="s">
-        <v>976</v>
+        <v>499</v>
       </c>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C461" s="38" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D461" s="38" t="s">
-        <v>530</v>
+        <v>976</v>
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A462" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>991</v>
-      </c>
-      <c r="D462" s="38"/>
+        <v>666</v>
+      </c>
+      <c r="D462" s="38" t="s">
+        <v>530</v>
+      </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>992</v>
+        <v>667</v>
       </c>
       <c r="C463" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="D463" s="38" t="s">
-        <v>505</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="D463" s="38"/>
       <c r="E463" s="38"/>
       <c r="F463" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A464" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>993</v>
-      </c>
-      <c r="C464" s="41" t="s">
-        <v>990</v>
-      </c>
-      <c r="D464" s="41" t="s">
-        <v>629</v>
+        <v>992</v>
+      </c>
+      <c r="C464" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="D464" s="38" t="s">
+        <v>505</v>
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
@@ -12593,45 +12620,45 @@
         <v>54</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="C465" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="D465" s="43"/>
-      <c r="E465" s="43"/>
-      <c r="F465" s="43"/>
+        <v>993</v>
+      </c>
+      <c r="C465" s="41" t="s">
+        <v>990</v>
+      </c>
+      <c r="D465" s="41" t="s">
+        <v>629</v>
+      </c>
+      <c r="E465" s="38"/>
+      <c r="F465" s="38" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B466" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="C466" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="D466" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E466" s="38"/>
-      <c r="F466" s="38" t="s">
-        <v>1001</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="C466" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D466" s="43"/>
+      <c r="E466" s="43"/>
+      <c r="F466" s="43"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>671</v>
-      </c>
-      <c r="C467" s="38" t="s">
-        <v>536</v>
+        <v>670</v>
+      </c>
+      <c r="C467" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="D467" s="38" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
@@ -12643,81 +12670,81 @@
         <v>54</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="C468" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D468" s="43"/>
-      <c r="E468" s="43"/>
-      <c r="F468" s="43"/>
+        <v>671</v>
+      </c>
+      <c r="C468" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D468" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="E468" s="38"/>
+      <c r="F468" s="38" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="C469" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D469" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E469" s="38"/>
-      <c r="F469" s="38" t="s">
-        <v>1001</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="C469" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D469" s="43"/>
+      <c r="E469" s="43"/>
+      <c r="F469" s="43"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B470" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C470" s="46" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B471" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C471" s="46" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A472" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B472" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="C472" s="38" t="s">
-        <v>545</v>
+        <v>675</v>
+      </c>
+      <c r="C472" s="46" t="s">
+        <v>543</v>
       </c>
       <c r="D472" s="38" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E472" s="38"/>
       <c r="F472" s="38" t="s">
@@ -12729,16 +12756,34 @@
         <v>54</v>
       </c>
       <c r="B473" s="38" t="s">
-        <v>1146</v>
+        <v>676</v>
       </c>
       <c r="C473" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D473" s="38" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E473" s="38"/>
       <c r="F473" s="38" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A474" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B474" s="38" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C474" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D474" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="E474" s="38"/>
+      <c r="F474" s="38" t="s">
         <v>1001</v>
       </c>
     </row>

--- a/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E0274A-CECA-488B-834B-AC8F30A5619A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5A076B-7EBE-40D6-92C8-189289A5A5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="1265">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3824,6 +3824,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.1,CARDHOLDER_FINGERPRINTS_OID:2.16.840.1.101.3.6.2,CARDHOLDER_FACIAL_IMAGE_OID:2.16.840.1.101.3.6.2,CARDHOLDER_IRIS_IMAGES_OID:2.16.840</t>
   </si>
 </sst>
 </file>
@@ -5729,7 +5732,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
         <v>54</v>
       </c>
@@ -12945,7 +12948,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -17801,8 +17804,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="A1:G30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17931,7 +17934,9 @@
       <c r="D6" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>1264</v>
+      </c>
       <c r="F6" s="21" t="s">
         <v>684</v>
       </c>

--- a/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_IdenTrust_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9EE9E0-F060-4DEE-B61C-0B13D654CE96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE80CA1C-1A83-4448-870A-9B10B6AA0282}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="756" windowWidth="20112" windowHeight="12948" tabRatio="536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1452" windowWidth="22920" windowHeight="12948" tabRatio="536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -4663,8 +4663,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:XFD174"/>
+    <sheetView tabSelected="1" topLeftCell="A457" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F471" sqref="F471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="E353" s="52"/>
       <c r="F353" s="44" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="E385" s="52"/>
       <c r="F385" s="44" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="E406" s="52"/>
       <c r="F406" s="44" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="E466" s="44"/>
       <c r="F466" s="44" t="s">
-        <v>1023</v>
+        <v>972</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
